--- a/biology/Médecine/Jean-Paul_Soulillou/Jean-Paul_Soulillou.xlsx
+++ b/biology/Médecine/Jean-Paul_Soulillou/Jean-Paul_Soulillou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Paul Soulillou, né le 7 août 1944 à Florimont-Gaumier (Dordogne), est un  médecin français, professeur d'immunologie à la Faculté de médecine de l'université de Nantes et chef du service de transplantation rénale au CHU de Nantes. Jean-Paul Soulillou a fondé et dirigé (1995-2007) l'Unité de recherche « Immunointervention dans les allo- et les xénotransplantations », laboratoire hospitalo-universitaire affilié à l'INSERM[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Paul Soulillou, né le 7 août 1944 à Florimont-Gaumier (Dordogne), est un  médecin français, professeur d'immunologie à la Faculté de médecine de l'université de Nantes et chef du service de transplantation rénale au CHU de Nantes. Jean-Paul Soulillou a fondé et dirigé (1995-2007) l'Unité de recherche « Immunointervention dans les allo- et les xénotransplantations », laboratoire hospitalo-universitaire affilié à l'INSERM,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir initié ses études de médecine à Bordeaux, Jean-Paul Soulillou devient interne des Hôpitaux de Nantes en 1969. Il obtient un certificat d’études spécialisées en immunologie à l’université d’Angers la même année. Il effectue son service militaire en coopération en Tunisie. En 1974, il est nommé Research fellow de Harvard Medical School au Peter Bent Brigham Hospital (en) à Boston (Massachusetts).
 Il est assistant-chef de clinique en 1975, puis professeur d’immunologie à la faculté de médecine de Nantes en 1980. Il est aujourd’hui professeur émérite.
@@ -550,15 +564,17 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1989 : Prix Deneboube/Bayonne (Ligue nationale contre le cancer)
 1998 : Prix L. Binet (Fondation pour la recherche médicale)
 1998 : Prix des sciences biologiques et médicales du Comité du rayonnement français (Académie des sciences)
-2002 : Prix Eloi Collery (Académie nationale de médecine)[3]
-2008 : The Transplantation Society Recognition Award for “Outstanding Achievement in Transplantation Science” (BASIC)[4]
-2012 : Prix d'honneur (Inserm)[5],[6]
-2016 : Medawar Prize (The Transplantation Society)[7]</t>
+2002 : Prix Eloi Collery (Académie nationale de médecine)
+2008 : The Transplantation Society Recognition Award for “Outstanding Achievement in Transplantation Science” (BASIC)
+2012 : Prix d'honneur (Inserm),
+2016 : Medawar Prize (The Transplantation Society)</t>
         </is>
       </c>
     </row>
@@ -586,9 +602,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des publications de Jean-Paul Soulillou est accessible directement sur PubMed[8]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des publications de Jean-Paul Soulillou est accessible directement sur PubMed
 </t>
         </is>
       </c>
